--- a/SWE_Homework2/팀초안_Req&Des.xlsx
+++ b/SWE_Homework2/팀초안_Req&Des.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+  <x:si>
+    <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류등록 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 Actor는 아이디와 비밀번호를 입력 후 로그인 버튼 클릭</x:t>
+  </x:si>
   <x:si>
     <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류조회 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 Actor는 아이디와 비밀번호를 입력 후 로그인 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류등록 버튼 클릭</x:t>
   </x:si>
   <x:si>
     <x:t>판매완료된 상품내역 조회 화면으로 전환 후 남은 수량이 0이 된 상품 출력 
 내역은 상품명의 오름차순으로 정렬해서 출력하며 각 상품에 대해 상품명, 제작회사명, 가격, 판매된 수량, 평균 구매만족도를 출력</x:t>
   </x:si>
   <x:si>
+    <x:t>회원가입 버튼을 눌러 회원 정보(이름,주민번호, ID,PW)를 입력하여 회원가입을 진행 후, 사용자에게 의류 쇼핑 사이트 사용 권한을 부여</x:t>
+  </x:si>
+  <x:si>
     <x:t>판매의류DB에 동일한 상품명이 없는 경우
 데이터 저장 후 메인화면으로 전환</x:t>
   </x:si>
@@ -36,6 +39,141 @@
     <x:t>구매내역 조회 화면에서 하나의 제품을 선택하여 구매만족도 평가하기 버튼 클릭</x:t>
   </x:si>
   <x:si>
+    <x:t>통계보기 버튼을 눌러 회원이 판매한 상품에 대한 총액 및 평균 구매만족도를 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 DB에서 아이디 중복 확인 후 중복이 아닐 경우 비밀번호부터 입력창 활성화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 화면으로 전환 후 사용자가 구매한 상품의 판매자ID, 상품명, 제작회사명, 가격, 평균 구매만족도를 출력한다. 상품명의 오름차순으로 상품을 정렬하여 출력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 완료된 상품 내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Actor Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호, 이름, 주민번호 입력 후 회원가입 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 버튼을 눌러 구매내역 정보(상품명, 제작회사명, 판매자, 가격, 평균 구매만족도)를 조회할 수 있다. 이 때 상품명의 오름차순으로 정렬해서 출력함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 등록 화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requirement List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품명을 입력하면 이에 해당하는 상세 정보(판매자ID, 상품명, 제작회사명, 가격, 남은 수량, 평균 구매만족도)를 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동일한 상품에 대한 구매내역이 없다면 구매 완료 팝업창 출력 또는 구매한 내역이 있다면 구매 불가 팝업 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보를 회원 DB에 저장 후 로그인 화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면에서 비회원 Actor가 회원가입 버튼을 누름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 판매 통계 버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 Actor는 메인화면에서 회원탈퇴 버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 구매내역조회 버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품명, 제작회사명, 가격, 수량 입력 후 등록버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매만족도 평가 팝업에서 1~5 사이의 정수 값 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 탈퇴 버튼을 눌러 회원의 시스템 사용 권한 소멸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 정보 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requirement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비회원 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 판매 통계 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use Case(s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 화면을 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 판매의류조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원의 회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 구매내역조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 상품정보검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 판매의류등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 만족도 평가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 완료된 상품 내역 조회 버튼을 눌러 회원의 판매 상품 중 남은 수량이 0이 된 상품을 조회. 상품명 오름차순 정렬이며 상품명, 제작회사명, 가격, 판매된 수량, 평균 구매만족도 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디를 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회</x:t>
+  </x:si>
+  <x:si>
     <x:t>판매 통계 화면으로 전환.  현재까지 판매한 모든 상품에 대한 총액 및 평균 구매만족도를 출력</x:t>
   </x:si>
   <x:si>
@@ -45,190 +183,58 @@
     <x:t>검색어와 일치하는 상품의 판매자ID, 상품명, 제작회사명, 가격, 남은 수량, 평균 구매만족도 출력</x:t>
   </x:si>
   <x:si>
+    <x:t>클릭한 별의 갯수만큼 이미지 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매만족도 평가 팝업이 출력된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 판매완료된 상품내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유효한 아이디와 비밀번호일 경우 메인화면으로 전환</x:t>
+  </x:si>
+  <x:si>
     <x:t>구매내역 조회 시 하나의 상품을 선택하여 1~5 사이의 정수 값을 입력해 구매만족도를 평가할 수 있음</x:t>
   </x:si>
   <x:si>
-    <x:t>통계보기 버튼을 눌러 회원이 판매한 상품에 대한 총액 및 평균 구매만족도를 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 DB에서 아이디 중복 확인 후 중복이 아닐 경우 비밀번호부터 입력창 활성화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유효한 아이디와 비밀번호일 경우 메인화면으로 전환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회 화면으로 전환 후 사용자가 구매한 상품의 판매자ID, 상품명, 제작회사명, 가격, 평균 구매만족도를 출력한다. 상품명의 오름차순으로 상품을 정렬하여 출력한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 완료된 상품 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>System Response</x:t>
+    <x:t>ID와 PW를 입력하여 사용자 인증을 통해 클라이언트의 접속 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회 화면으로 전환 후 사용자가 판매중인 의류 목록 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면의 검색 창에 상품명 입력 후 엔터키 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 판매완료된 상품 내역 조회 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회 버튼을 눌러 자신이 등록한 의류 상품의 리스트 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈퇴되었다는 팝업창 출력</x:t>
   </x:si>
   <x:si>
     <x:t>회원의 로그인/로그아웃</x:t>
   </x:si>
   <x:si>
-    <x:t>탈퇴되었다는 팝업창 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actor Action</x:t>
-  </x:si>
-  <x:si>
     <x:t>아이디 중복체크 버튼 클릭</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입 버튼을 눌러 회원 정보(이름,주민번호, ID,PW)를 입력하여 회원가입을 진행 후, 사용자에게 의류 쇼핑 사이트 사용 권한을 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품명을 입력하면 이에 해당하는 상세 정보(판매자ID, 상품명, 제작회사명, 가격, 남은 수량, 평균 구매만족도)를 출력하며 즉시 구매 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면에서 비회원 Actor가 회원가입 버튼을 누름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호, 이름, 주민번호 입력 후 회원가입 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 탈퇴 버튼을 눌러 회원의 시스템 사용 권한 소멸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 Actor는 메인화면에서 회원탈퇴 버튼을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자Actor는 메인화면에서 판매 통계 버튼을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보를 회원 DB에 저장 후 로그인 화면으로 전환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자Actor는 메인화면에서 구매내역조회 버튼을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품명, 제작회사명, 가격, 수량 입력 후 등록버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매만족도 평가 팝업에서 1~5 사이의 정수 값 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 완료된 상품 내역 조회 버튼을 눌러 회원의 판매 상품 중 남은 수량이 0이 된 상품을 조회. 상품명 오름차순 정렬이며 상품명, 제작회사명, 가격, 판매된 수량, 평균 구매만족도 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회 버튼을 눌러 구매내역 정보(상품명, 제작회사명, 판매자, 가격, 평균 구매만족도)를 조회할 수 있다. 이 때 상품명의 오름차순으로 정렬해서 출력함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 등록 화면으로 전환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirement List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 판매완료된 상품내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클릭한 별의 갯수만큼 이미지 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매만족도 평가 팝업이 출력된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자Actor는 메인화면에서 판매완료된 상품 내역 조회 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID와 PW를 입력하여 사용자 인증을 통해 클라이언트의 접속 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회 버튼을 눌러 자신이 등록한 의류 상품의 리스트 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회 화면으로 전환 후 사용자가 판매중인 의류 목록 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자Actor는 메인화면의 검색 창에 상품명 입력 후 엔터키 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동일한 상품에 대한 구매내역이 없다면 구매 완료 팝업창 출력 또는 구매한 내역이 있다면 구매 불가 팝업 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면으로 전환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 정보 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비회원 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 판매 통계 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use Case(s)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 화면을 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 만족도 평가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 판매의류조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 구매내역조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원의 회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 상품정보검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 판매의류등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디를 입력</x:t>
+    <x:t>구매만족도 평가 팝업에서 확인 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼을 눌러 사용자 인증 해제</x:t>
   </x:si>
   <x:si>
     <x:t>회원 Actor가 로그아웃 버튼 클릭</x:t>
   </x:si>
   <x:si>
-    <x:t>로그아웃 버튼을 눌러 사용자 인증 해제</x:t>
-  </x:si>
-  <x:si>
     <x:t>사용자의 해당 의류 구매만족도를 저장</x:t>
   </x:si>
   <x:si>
-    <x:t>구매만족도 평가 팝업에서 확인 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No.</x:t>
+    <x:t>구매 버튼을 눌러 즉시 구매</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -684,6 +690,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -728,6 +735,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -804,6 +812,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -842,6 +851,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -864,6 +874,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -896,6 +907,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -943,6 +955,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -998,6 +1011,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1032,6 +1046,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1064,6 +1079,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1086,6 +1102,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1437,10 +1454,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C13"/>
+  <x:dimension ref="A1:C14"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
+      <x:selection activeCell="E9" activeCellId="0" sqref="E9:E9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.399999999999999"/>
@@ -1452,20 +1469,20 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="20" t="s">
-        <x:v>34</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B1" s="20"/>
       <x:c r="C1" s="20"/>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" ht="50.25" customHeight="1">
@@ -1473,10 +1490,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" ht="37.5" customHeight="1">
@@ -1484,10 +1501,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C4" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3" ht="42" customHeight="1">
@@ -1495,10 +1512,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="C5" s="6" t="s">
-        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" ht="28.5" customHeight="1">
@@ -1506,10 +1523,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C6" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" ht="45" customHeight="1">
@@ -1517,10 +1534,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C7" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" ht="42" customHeight="1">
@@ -1528,10 +1545,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3" ht="57.75" customHeight="1">
@@ -1539,10 +1556,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" ht="53.25" customHeight="1">
@@ -1550,50 +1567,61 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3" ht="63.75" customHeight="1">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3" ht="53.25" customHeight="1">
       <x:c r="A11" s="4">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3" ht="45" customHeight="1">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3" ht="63.75" customHeight="1">
       <x:c r="A12" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3" ht="36.75" customHeight="1">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3" ht="45" customHeight="1">
       <x:c r="A13" s="4">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C13" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C13" s="6" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3" ht="36.75" customHeight="1">
+      <x:c r="A14" s="4">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C14" s="7" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
     <x:mergeCell ref="A1:C1"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1604,7 +1632,7 @@
   <x:dimension ref="A1:C59"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <x:selection activeCell="C59" activeCellId="0" sqref="C59:C59"/>
+      <x:selection activeCell="C43" activeCellId="0" sqref="C43:C43"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.399999999999999"/>
@@ -1616,13 +1644,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="24.25">
       <x:c r="A1" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C1" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" ht="33" customHeight="1">
@@ -1640,7 +1668,7 @@
       </x:c>
       <x:c r="B3" s="11"/>
       <x:c r="C3" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" ht="18" customHeight="1">
@@ -1648,7 +1676,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C4" s="12"/>
     </x:row>
@@ -1657,7 +1685,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C5" s="12"/>
     </x:row>
@@ -1667,7 +1695,7 @@
       </x:c>
       <x:c r="B6" s="11"/>
       <x:c r="C6" s="19" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" ht="20.25" customHeight="1">
@@ -1675,7 +1703,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="12"/>
     </x:row>
@@ -1685,7 +1713,7 @@
       </x:c>
       <x:c r="B8" s="11"/>
       <x:c r="C8" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3" ht="18" customHeight="1">
@@ -1715,13 +1743,13 @@
     </x:row>
     <x:row r="14" spans="1:3" ht="24.25">
       <x:c r="A14" s="18" t="s">
-        <x:v>16</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B14" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3" ht="23.25" customHeight="1">
@@ -1739,7 +1767,7 @@
       </x:c>
       <x:c r="B16" s="11"/>
       <x:c r="C16" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3" ht="20.25" customHeight="1">
@@ -1747,7 +1775,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B17" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C17" s="11"/>
     </x:row>
@@ -1757,7 +1785,7 @@
       </x:c>
       <x:c r="B18" s="11"/>
       <x:c r="C18" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1772,13 +1800,13 @@
     </x:row>
     <x:row r="21" spans="1:3" ht="24.25">
       <x:c r="A21" s="18" t="s">
-        <x:v>57</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B21" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3" ht="24" customHeight="1">
@@ -1786,7 +1814,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B22" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="11"/>
     </x:row>
@@ -1796,7 +1824,7 @@
       </x:c>
       <x:c r="B23" s="11"/>
       <x:c r="C23" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1806,13 +1834,13 @@
     </x:row>
     <x:row r="25" spans="1:3" ht="24.25">
       <x:c r="A25" s="18" t="s">
-        <x:v>59</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B25" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C25" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3" ht="19.5" customHeight="1">
@@ -1820,7 +1848,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B26" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C26" s="11"/>
     </x:row>
@@ -1830,7 +1858,7 @@
       </x:c>
       <x:c r="B27" s="11"/>
       <x:c r="C27" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1838,7 +1866,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B28" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C28" s="11"/>
     </x:row>
@@ -1848,7 +1876,7 @@
       </x:c>
       <x:c r="B29" s="11"/>
       <x:c r="C29" s="19" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1858,13 +1886,13 @@
     </x:row>
     <x:row r="31" spans="1:3" ht="24.25">
       <x:c r="A31" s="18" t="s">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B31" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C31" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1872,7 +1900,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B32" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C32" s="11"/>
     </x:row>
@@ -1882,7 +1910,7 @@
       </x:c>
       <x:c r="B33" s="11"/>
       <x:c r="C33" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1892,13 +1920,13 @@
     </x:row>
     <x:row r="35" spans="1:3" ht="36.350000000000001">
       <x:c r="A35" s="18" t="s">
-        <x:v>35</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B35" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C35" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3" ht="24.25">
@@ -1906,7 +1934,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B36" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C36" s="11"/>
     </x:row>
@@ -1926,13 +1954,13 @@
     </x:row>
     <x:row r="39" spans="1:3" ht="24.25">
       <x:c r="A39" s="18" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B39" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C39" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3" ht="24.25">
@@ -1940,7 +1968,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B40" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C40" s="11"/>
     </x:row>
@@ -1950,7 +1978,7 @@
       </x:c>
       <x:c r="B41" s="11"/>
       <x:c r="C41" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1958,7 +1986,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B42" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C42" s="11"/>
     </x:row>
@@ -1968,7 +1996,7 @@
       </x:c>
       <x:c r="B43" s="11"/>
       <x:c r="C43" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1983,13 +2011,13 @@
     </x:row>
     <x:row r="46" spans="1:3" ht="24.25">
       <x:c r="A46" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B46" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C46" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -1997,7 +2025,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B47" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C47" s="11"/>
     </x:row>
@@ -2007,7 +2035,7 @@
       </x:c>
       <x:c r="B48" s="11"/>
       <x:c r="C48" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3" ht="24.25">
@@ -2015,7 +2043,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B49" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C49" s="11"/>
     </x:row>
@@ -2025,7 +2053,7 @@
       </x:c>
       <x:c r="B50" s="11"/>
       <x:c r="C50" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
@@ -2033,7 +2061,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B51" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C51" s="11"/>
     </x:row>
@@ -2043,7 +2071,7 @@
       </x:c>
       <x:c r="B52" s="11"/>
       <x:c r="C52" s="19" t="s">
-        <x:v>36</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
@@ -2061,7 +2089,7 @@
       </x:c>
       <x:c r="B54" s="11"/>
       <x:c r="C54" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
@@ -2076,13 +2104,13 @@
     </x:row>
     <x:row r="57" spans="1:3" ht="24.25">
       <x:c r="A57" s="18" t="s">
-        <x:v>49</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B57" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C57" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
@@ -2090,7 +2118,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B58" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C58" s="11"/>
     </x:row>
@@ -2100,11 +2128,11 @@
       </x:c>
       <x:c r="B59" s="11"/>
       <x:c r="C59" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>